--- a/biology/Microbiologie/Kreyellidae/Kreyellidae.xlsx
+++ b/biology/Microbiologie/Kreyellidae/Kreyellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Kreyellidae sont une famille de Ciliés de la classe des Colpodea et de l’ordre des Bryometopida.
 </t>
@@ -511,11 +523,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le nom de la famille vient du genre type Kreyella, nommé en hommage à L. Kreye par A. Kahl qui dédicace ainsi la création de ce genre : 
-« Le genre est dédié à mon ami L. Kreye, qui s'intéresse aux infusoires et qui a un jour observé le petit animal avec moi. Il n'était pas rare qu'il persiste longtemps dans une mousse du sol de l'Eppendorfer Moor près de Hambourg[1]. »
+« Le genre est dédié à mon ami L. Kreye, qui s'intéresse aux infusoires et qui a un jour observé le petit animal avec moi. Il n'était pas rare qu'il persiste longtemps dans une mousse du sol de l'Eppendorfer Moor près de Hambourg. »
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Selon The World of Protozoa, le genre type Kreyella se décline ainsi 
-« Corps de forme ovale, aplati avec une délicate armure carénée. La ciliature somatique est réduite, sur la face ventrale à deux ou trois rangées ciliaires semi-circulaires. Le cytostome s'ouvre dans une dépression située dans la région postérieure gauche du corps. L'ouverture buccale n'est pas souligée par un bouquet de trichites. À droite de la dépression buccale, il y a un bord vibratile postérieur et deux rangées ciliaires antérieures parallèles. À gauche de l'ouverture buccale, il y a un noyau arrondi, centrale. Une seule vacuole contractile sur la partie postérieure droite du corps[2]. »
+« Corps de forme ovale, aplati avec une délicate armure carénée. La ciliature somatique est réduite, sur la face ventrale à deux ou trois rangées ciliaires semi-circulaires. Le cytostome s'ouvre dans une dépression située dans la région postérieure gauche du corps. L'ouverture buccale n'est pas souligée par un bouquet de trichites. À droite de la dépression buccale, il y a un bord vibratile postérieur et deux rangées ciliaires antérieures parallèles. À gauche de l'ouverture buccale, il y a un noyau arrondi, centrale. Une seule vacuole contractile sur la partie postérieure droite du corps. »
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Kreyella ne comprend que des espèces terrestres.
 </t>
@@ -608,11 +626,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (30 octobre 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (30 octobre 2022) :
 Kreyella Kahl, 1931
-Microdiaphanosoma Wenzel, 1953[4]
+Microdiaphanosoma Wenzel, 1953
 Orthokreyella Foissner, 1984
 Udisoma</t>
         </is>
@@ -642,9 +662,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Kreyellidae Foissner, 1979[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Kreyellidae Foissner, 1979.
 </t>
         </is>
       </c>
